--- a/my_portfolio.xlsx
+++ b/my_portfolio.xlsx
@@ -43,7 +43,7 @@
     <t>VUSA.AS</t>
   </si>
   <si>
-    <t>TEST</t>
+    <t>IAES.AS</t>
   </si>
   <si>
     <t>EUR</t>
@@ -69,7 +69,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="YYYY-MM-DD"/>
+    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -486,7 +486,7 @@
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B3" t="s">
         <v>9</v>
@@ -495,13 +495,13 @@
         <v>1</v>
       </c>
       <c r="D3">
-        <v>15.01</v>
+        <v>53.44</v>
       </c>
       <c r="E3" t="s">
         <v>10</v>
       </c>
       <c r="F3" s="2">
-        <v>44136</v>
+        <v>44137</v>
       </c>
       <c r="G3" t="s">
         <v>12</v>

--- a/my_portfolio.xlsx
+++ b/my_portfolio.xlsx
@@ -7,70 +7,58 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="prices" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>ticker</t>
   </si>
   <si>
+    <t>open_price</t>
+  </si>
+  <si>
+    <t>growth_perc</t>
+  </si>
+  <si>
+    <t>gain_total</t>
+  </si>
+  <si>
+    <t>value_total</t>
+  </si>
+  <si>
+    <t>buy_price</t>
+  </si>
+  <si>
     <t>shares</t>
   </si>
   <si>
-    <t>buy_price</t>
-  </si>
-  <si>
-    <t>currency</t>
-  </si>
-  <si>
-    <t>buy_date</t>
-  </si>
-  <si>
-    <t>status</t>
-  </si>
-  <si>
-    <t>sector</t>
-  </si>
-  <si>
-    <t>region</t>
+    <t>gain_ps</t>
+  </si>
+  <si>
+    <t>avg_buy</t>
   </si>
   <si>
     <t>VUSA.AS</t>
   </si>
   <si>
-    <t>IAES.AS</t>
-  </si>
-  <si>
-    <t>EUR</t>
-  </si>
-  <si>
-    <t>2020-25-10</t>
-  </si>
-  <si>
-    <t>completed</t>
-  </si>
-  <si>
-    <t>all</t>
-  </si>
-  <si>
-    <t>US</t>
-  </si>
-  <si>
-    <t>NL</t>
+    <t>IAEX.AS</t>
+  </si>
+  <si>
+    <t>-0.63%</t>
+  </si>
+  <si>
+    <t>3.07%</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
-  </numFmts>
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -123,12 +111,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -423,13 +410,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I3"/>
+  <dimension ref="A1:J3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:10">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -454,63 +441,72 @@
       <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:10">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C2">
+        <v>54.564</v>
+      </c>
+      <c r="D2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2">
+        <v>-0.3459999999999965</v>
+      </c>
+      <c r="F2">
+        <v>54.564</v>
+      </c>
+      <c r="G2">
+        <v>54.91</v>
+      </c>
+      <c r="H2">
         <v>1</v>
       </c>
-      <c r="D2">
+      <c r="I2">
+        <v>-0.3459999999999965</v>
+      </c>
+      <c r="J2">
         <v>54.91</v>
       </c>
-      <c r="E2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" t="s">
-        <v>12</v>
-      </c>
-      <c r="H2" t="s">
-        <v>13</v>
-      </c>
-      <c r="I2" t="s">
-        <v>14</v>
-      </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:10">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C3">
+        <v>55.08</v>
+      </c>
+      <c r="D3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3">
+        <v>1.640000000000001</v>
+      </c>
+      <c r="F3">
+        <v>55.08</v>
+      </c>
+      <c r="G3">
+        <v>53.44</v>
+      </c>
+      <c r="H3">
         <v>1</v>
       </c>
-      <c r="D3">
+      <c r="I3">
+        <v>1.640000000000001</v>
+      </c>
+      <c r="J3">
         <v>53.44</v>
-      </c>
-      <c r="E3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F3" s="2">
-        <v>44137</v>
-      </c>
-      <c r="G3" t="s">
-        <v>12</v>
-      </c>
-      <c r="H3" t="s">
-        <v>13</v>
-      </c>
-      <c r="I3" t="s">
-        <v>15</v>
       </c>
     </row>
   </sheetData>
